--- a/test/1. 各院彙整資料/教育學院.xlsx
+++ b/test/1. 各院彙整資料/教育學院.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65DBDFA5-CD32-4AD9-A502-41E5EEA60BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B597AE7E-1C4D-43C9-A56A-B0193958AD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{401E24D0-2105-4A77-A98A-3D0464EA35BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE321EA4-DEE6-47B9-AB8B-4D4F088710B5}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB4247D-2E2F-481E-ABD5-4AA1E1E27993}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0BE6F1-C3CE-4A65-AF44-12F9E9FDC903}">
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/test/1. 各院彙整資料/教育學院.xlsx
+++ b/test/1. 各院彙整資料/教育學院.xlsx
@@ -5,34 +5,34 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\程式學習\Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618949F5-7748-4EEC-8C5E-4F35825FF711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DA9789-80C3-44EB-AFD3-AF88A963EE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{07B1728A-975C-48A9-AC85-6811657E39C3}"/>
+    <workbookView xWindow="2730" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{07B1728A-975C-48A9-AC85-6811657E39C3}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="2" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="3" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="4" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="5" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="6" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="7" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="8" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1.4.1.1 學士班獲獎助學金平均金額'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'1.7.1.4 碩士班平均修業年限'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'2.1.1.2 平均碩博士班修課學生人數'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'3.2.1.1 舉辦國際學術研討會數'!$A$1:$G$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="28">
   <si>
     <t>教育學院</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>900 教育學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>900 教育學院</t>
   </si>
   <si>
     <t>102 教育學系</t>
@@ -464,28 +461,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$8</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -493,14 +487,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$8</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -508,7 +502,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-104B-468C-82D0-27E1F9453A38}"/>
+              <c16:uniqueId val="{00000000-FAD8-43D5-8F91-D4A1CF5E18BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -543,28 +537,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$8</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -572,14 +563,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$8</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -587,7 +578,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-104B-468C-82D0-27E1F9453A38}"/>
+              <c16:uniqueId val="{00000001-FAD8-43D5-8F91-D4A1CF5E18BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -622,28 +613,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$8</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -651,14 +639,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$8</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -666,7 +654,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-104B-468C-82D0-27E1F9453A38}"/>
+              <c16:uniqueId val="{00000002-FAD8-43D5-8F91-D4A1CF5E18BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -777,7 +765,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-104B-468C-82D0-27E1F9453A38}"/>
+                  <c16:uniqueId val="{00000003-FAD8-43D5-8F91-D4A1CF5E18BA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -849,28 +837,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$8</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -878,14 +863,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$8</c:f>
+              <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -894,7 +879,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-104B-468C-82D0-27E1F9453A38}"/>
+              <c16:uniqueId val="{00000004-FAD8-43D5-8F91-D4A1CF5E18BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1175,28 +1160,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$8</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1204,14 +1186,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$8</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1219,7 +1201,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-550A-44EF-B5C2-CDE363BCC445}"/>
+              <c16:uniqueId val="{00000000-5B59-46DB-81F0-677EA041A84E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1254,28 +1236,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$8</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1283,14 +1262,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$8</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -1298,7 +1277,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-550A-44EF-B5C2-CDE363BCC445}"/>
+              <c16:uniqueId val="{00000001-5B59-46DB-81F0-677EA041A84E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1333,28 +1312,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$8</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1362,14 +1338,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$8</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -1377,7 +1353,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-550A-44EF-B5C2-CDE363BCC445}"/>
+              <c16:uniqueId val="{00000002-5B59-46DB-81F0-677EA041A84E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1488,7 +1464,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-550A-44EF-B5C2-CDE363BCC445}"/>
+                  <c16:uniqueId val="{00000003-5B59-46DB-81F0-677EA041A84E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1560,28 +1536,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$8</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1589,14 +1562,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$8</c:f>
+              <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -1605,7 +1578,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-550A-44EF-B5C2-CDE363BCC445}"/>
+              <c16:uniqueId val="{00000004-5B59-46DB-81F0-677EA041A84E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1886,28 +1859,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$8</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1915,14 +1885,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$8</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1930,7 +1900,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A606-48DD-8E02-AE162138D573}"/>
+              <c16:uniqueId val="{00000000-171A-4F63-91DE-65A157D61A67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1965,28 +1935,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$8</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -1994,14 +1961,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$8</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2009,7 +1976,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A606-48DD-8E02-AE162138D573}"/>
+              <c16:uniqueId val="{00000001-171A-4F63-91DE-65A157D61A67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2044,28 +2011,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$8</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2073,14 +2037,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$8</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -2088,7 +2052,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A606-48DD-8E02-AE162138D573}"/>
+              <c16:uniqueId val="{00000002-171A-4F63-91DE-65A157D61A67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2199,7 +2163,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A606-48DD-8E02-AE162138D573}"/>
+                  <c16:uniqueId val="{00000003-171A-4F63-91DE-65A157D61A67}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2271,28 +2235,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$8</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2300,14 +2261,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$8</c:f>
+              <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -2316,7 +2277,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A606-48DD-8E02-AE162138D573}"/>
+              <c16:uniqueId val="{00000004-171A-4F63-91DE-65A157D61A67}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2597,28 +2558,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$8</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2626,14 +2584,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$8</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -2641,7 +2599,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7622-4F07-BBD0-4043D2E54C7F}"/>
+              <c16:uniqueId val="{00000000-2E9F-4D88-9965-F9FFD0572D83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2676,28 +2634,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$8</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2705,14 +2660,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$8</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2720,7 +2675,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7622-4F07-BBD0-4043D2E54C7F}"/>
+              <c16:uniqueId val="{00000001-2E9F-4D88-9965-F9FFD0572D83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2755,28 +2710,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$8</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -2784,14 +2736,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$8</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -2799,7 +2751,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7622-4F07-BBD0-4043D2E54C7F}"/>
+              <c16:uniqueId val="{00000002-2E9F-4D88-9965-F9FFD0572D83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2910,7 +2862,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-7622-4F07-BBD0-4043D2E54C7F}"/>
+                  <c16:uniqueId val="{00000003-2E9F-4D88-9965-F9FFD0572D83}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2982,28 +2934,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$8</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3011,14 +2960,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$8</c:f>
+              <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -3027,7 +2976,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7622-4F07-BBD0-4043D2E54C7F}"/>
+              <c16:uniqueId val="{00000004-2E9F-4D88-9965-F9FFD0572D83}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3308,28 +3257,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$8</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3337,14 +3283,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$8</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3352,7 +3298,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E86-4926-A1EA-AA8BDCE3509A}"/>
+              <c16:uniqueId val="{00000000-2E8E-4A37-8C93-5E4F7B1B89C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3387,28 +3333,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$8</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3416,14 +3359,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$8</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -3431,7 +3374,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0E86-4926-A1EA-AA8BDCE3509A}"/>
+              <c16:uniqueId val="{00000001-2E8E-4A37-8C93-5E4F7B1B89C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3466,28 +3409,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$8</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3495,14 +3435,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$8</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -3510,7 +3450,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0E86-4926-A1EA-AA8BDCE3509A}"/>
+              <c16:uniqueId val="{00000002-2E8E-4A37-8C93-5E4F7B1B89C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3621,7 +3561,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0E86-4926-A1EA-AA8BDCE3509A}"/>
+                  <c16:uniqueId val="{00000003-2E8E-4A37-8C93-5E4F7B1B89C7}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3693,28 +3633,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$8</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -3722,14 +3659,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$8</c:f>
+              <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -3738,7 +3675,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0E86-4926-A1EA-AA8BDCE3509A}"/>
+              <c16:uniqueId val="{00000004-2E8E-4A37-8C93-5E4F7B1B89C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4019,28 +3956,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$8</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4048,14 +3982,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$8</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4063,7 +3997,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CAAA-4C65-A359-A6FAA3558064}"/>
+              <c16:uniqueId val="{00000000-1E66-4E5B-B76B-398E19E0E6B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4098,28 +4032,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$8</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4127,14 +4058,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$8</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -4142,7 +4073,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CAAA-4C65-A359-A6FAA3558064}"/>
+              <c16:uniqueId val="{00000001-1E66-4E5B-B76B-398E19E0E6B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4177,28 +4108,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$8</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4206,14 +4134,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$8</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -4221,7 +4149,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CAAA-4C65-A359-A6FAA3558064}"/>
+              <c16:uniqueId val="{00000002-1E66-4E5B-B76B-398E19E0E6B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4332,7 +4260,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-CAAA-4C65-A359-A6FAA3558064}"/>
+                  <c16:uniqueId val="{00000003-1E66-4E5B-B76B-398E19E0E6B8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4404,28 +4332,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$8</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4433,14 +4358,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$8</c:f>
+              <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -4449,7 +4374,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CAAA-4C65-A359-A6FAA3558064}"/>
+              <c16:uniqueId val="{00000004-1E66-4E5B-B76B-398E19E0E6B8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4730,28 +4655,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$8</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4759,14 +4681,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$8</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.4999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>3.5000000000000003E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4774,7 +4696,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0022-4019-9C8C-DE55AF9B1D80}"/>
+              <c16:uniqueId val="{00000000-AE84-4AA8-A999-2DD9C1EF87F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4809,28 +4731,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$8</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4838,14 +4757,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$8</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -4853,7 +4772,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0022-4019-9C8C-DE55AF9B1D80}"/>
+              <c16:uniqueId val="{00000001-AE84-4AA8-A999-2DD9C1EF87F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4888,28 +4807,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$8</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -4917,14 +4833,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$8</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.04</c:v>
                 </c:pt>
               </c:numCache>
@@ -4932,7 +4848,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0022-4019-9C8C-DE55AF9B1D80}"/>
+              <c16:uniqueId val="{00000002-AE84-4AA8-A999-2DD9C1EF87F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5043,7 +4959,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-0022-4019-9C8C-DE55AF9B1D80}"/>
+                  <c16:uniqueId val="{00000003-AE84-4AA8-A999-2DD9C1EF87F5}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5115,28 +5031,25 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$8</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>教育學院</c:v>
+                  <c:v>學行碩</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>學行碩</c:v>
+                  <c:v>幼教所</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>幼教所</c:v>
+                  <c:v>教政所</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>教政所</c:v>
+                  <c:v>輔諮碩</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
@@ -5144,14 +5057,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$8</c:f>
+              <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="5">
                   <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
@@ -5160,7 +5073,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0022-4019-9C8C-DE55AF9B1D80}"/>
+              <c16:uniqueId val="{00000004-AE84-4AA8-A999-2DD9C1EF87F5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5389,7 +5302,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59D48E8A-EAAF-426F-A91E-34C26CE49044}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A789AB84-95D3-4573-B19E-154667E1BE1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5422,7 +5335,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55B4DCBD-4B6F-40C8-B307-3BBDD38CCF95}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22253707-8F38-4FB8-8038-675E987D175A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5455,7 +5368,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F981B0A3-0093-4E2B-A931-19DAB495CD32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF45F2BF-D40E-442B-A146-DFFF2BC19ABD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5488,7 +5401,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11BB2155-BD9D-4B92-8712-B2837AC034B2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E17EC34E-2B77-49A1-99EA-23E6F560C1C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5521,7 +5434,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FC42ABD-D589-43E7-86FC-C8CA529AD916}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178FBD45-7536-4C50-9CF0-C59DAFBAFB20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5554,7 +5467,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2103BBE6-7A7D-4E04-B7E2-13B4A9064347}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81304086-143C-4869-AC44-1BFBEEC3A78A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5587,7 +5500,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F536BEEE-3FC6-4AC0-BE6D-B1648320B753}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DE0D42-DD01-4E12-AEFA-17F60632EA9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5637,7 +5550,7 @@
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>院均值</v>
+            <v>科系1</v>
           </cell>
           <cell r="C2">
             <v>0.06</v>
@@ -5654,7 +5567,7 @@
         </row>
         <row r="3">
           <cell r="B3" t="str">
-            <v>測試二</v>
+            <v>院均值</v>
           </cell>
           <cell r="C3">
             <v>0.05</v>
@@ -6043,25 +5956,25 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{9410B186-85EF-4716-B0B1-928BA870D112}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{E9AB3CA7-34CA-4A1E-9D73-F29F72E344D6}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{54980D6E-5D84-4FD3-A536-E424AFC2BA59}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{9C7308A0-9360-4118-989E-1086AD8809E9}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{19503266-22AC-41E2-92F9-8D4FECEE6C28}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{99B66F84-14F2-42B2-BDBB-767280FFFFE7}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{9C01F920-3F9B-4249-88AC-F5B938CB760D}"/>
+    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{5B092A69-E22A-4CF8-988D-BA97B63B2503}"/>
+    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{D250DE77-77E9-4CCC-A7A1-303174C978CD}"/>
+    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{DF339C0E-0C1E-4B65-A120-E62C38829904}"/>
+    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{77E9C262-36A7-41D1-AD34-AA44D82E9DDB}"/>
+    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{631F12D2-2644-4B6E-B645-2C33DFA763B9}"/>
+    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{68A2361B-A29B-44C7-919C-17033133B812}"/>
+    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{013A458B-6E67-4DFC-AC9A-47DAB76BD756}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB2B375-E259-4D96-8ADC-8B30B61A3ED9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58FA89B-AF69-46DD-949A-4C52B585B3C2}">
   <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6116,16 +6029,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -6138,7 +6049,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6151,7 +6062,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6164,7 +6075,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6177,39 +6088,28 @@
         <v>25</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="C7" s="10">
         <v>0.05</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D7" s="10">
         <v>0.04</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E7" s="10">
         <v>0.01</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F7" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G7" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G8" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
-      <sortCondition descending="1" ref="G1:G8"/>
+  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+      <sortCondition descending="1" ref="G1:G7"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6220,12 +6120,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7D844D-62BD-4AE5-A905-D78106297B04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC5122E-AF5D-413B-B40C-68B9004C0CFD}">
   <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6280,16 +6180,14 @@
       <c r="F2" s="10">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -6302,7 +6200,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -6315,7 +6213,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -6328,7 +6226,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -6341,39 +6239,28 @@
         <v>25</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="C7" s="10">
         <v>0.05</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D7" s="10">
         <v>0.04</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E7" s="10">
         <v>0.01</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F7" s="10">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G7" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G8" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
-      <sortCondition descending="1" ref="G1:G8"/>
+  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+      <sortCondition descending="1" ref="G1:G7"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6384,12 +6271,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025F76CC-9540-4F11-8B01-C0AAB493F632}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC9E57D-15A3-4E01-9260-36F24F407F2D}">
   <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6444,16 +6331,14 @@
       <c r="F2" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -6466,7 +6351,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -6479,7 +6364,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -6492,7 +6377,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -6505,39 +6390,28 @@
         <v>25</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="11">
+      <c r="C7" s="11">
         <v>0.05</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D7" s="11">
         <v>0.04</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E7" s="11">
         <v>0.01</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F7" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G7" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G8" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
-      <sortCondition descending="1" ref="G1:G8"/>
+  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+      <sortCondition descending="1" ref="G1:G7"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6548,12 +6422,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F035C72-27D6-468E-ABCD-9D33A42315EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023B3CD6-8DD0-451A-AD6E-E4BF423DC7FC}">
   <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6608,16 +6482,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6630,7 +6502,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -6643,7 +6515,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -6656,7 +6528,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -6669,39 +6541,28 @@
         <v>25</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="C7" s="12">
         <v>0.05</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D7" s="12">
         <v>0.04</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E7" s="12">
         <v>0.01</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F7" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G7" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G8" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
-      <sortCondition descending="1" ref="G1:G8"/>
+  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+      <sortCondition descending="1" ref="G1:G7"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6712,12 +6573,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A6B974-A176-47FB-A074-DF4239EB1A75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3577C8B-AC67-48E4-9043-E63238A658A9}">
   <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6772,16 +6633,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6794,7 +6653,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -6807,7 +6666,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -6820,7 +6679,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -6833,39 +6692,28 @@
         <v>25</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="C7" s="12">
         <v>0.05</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D7" s="12">
         <v>0.04</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E7" s="12">
         <v>0.01</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F7" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G7" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G8" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
-      <sortCondition descending="1" ref="G1:G8"/>
+  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+      <sortCondition descending="1" ref="G1:G7"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6876,12 +6724,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDAC906-B55E-4B24-997F-E2D3EE1A9083}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E239D46-632F-410C-92E7-68EDEFE02436}">
   <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6922,7 +6770,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -6936,16 +6784,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -6958,7 +6804,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -6971,7 +6817,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -6984,7 +6830,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -6997,39 +6843,28 @@
         <v>25</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="C7" s="12">
         <v>0.05</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D7" s="12">
         <v>0.04</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E7" s="12">
         <v>0.01</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F7" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G7" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G8" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
-      <sortCondition descending="1" ref="G1:G8"/>
+  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+      <sortCondition descending="1" ref="G1:G7"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7040,12 +6875,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71E995E-B5C1-4A95-94B5-CDBC97D69DED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C94AEFE-402B-43D2-962F-ACD3482B4EB6}">
   <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7086,7 +6921,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="12">
         <v>0.06</v>
@@ -7100,16 +6935,14 @@
       <c r="F2" s="12">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G2" s="9">
-        <v>999</v>
-      </c>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -7122,7 +6955,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -7135,7 +6968,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -7148,7 +6981,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -7161,39 +6994,28 @@
         <v>25</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="12">
+      <c r="C7" s="12">
         <v>0.05</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D7" s="12">
         <v>0.04</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E7" s="12">
         <v>0.01</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F7" s="12">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G7" s="9">
+        <v>999</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G8" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G8">
-      <sortCondition descending="1" ref="G1:G8"/>
+  <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
+      <sortCondition descending="1" ref="G1:G7"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/教育學院.xlsx
+++ b/test/1. 各院彙整資料/教育學院.xlsx
@@ -8,23 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DA9789-80C3-44EB-AFD3-AF88A963EE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EB21A6-4778-49EA-91A0-3D21AC782D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="600" windowWidth="17595" windowHeight="15600" firstSheet="4" activeTab="7" xr2:uid="{07B1728A-975C-48A9-AC85-6811657E39C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{07B1728A-975C-48A9-AC85-6811657E39C3}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="9" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="10" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="11" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="12" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="13" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="14" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="15" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'1.1.3.4 博士班招收國內重點大學畢業生比率'!$A$1:$G$7</definedName>
@@ -53,10 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="28">
-  <si>
-    <t>教育學院</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="37">
   <si>
     <t>學行碩</t>
   </si>
@@ -68,27 +62,6 @@
   </si>
   <si>
     <t>輔諮碩</t>
-  </si>
-  <si>
-    <t>1.1.1.1 學士班繁星推薦入學錄取率</t>
-  </si>
-  <si>
-    <t>1.1.3.4 博士班招收國內重點大學畢業生比率</t>
-  </si>
-  <si>
-    <t>1.4.1.1 學士班獲獎助學金平均金額</t>
-  </si>
-  <si>
-    <t>1.7.1.4 碩士班平均修業年限</t>
-  </si>
-  <si>
-    <t>2.1.1.2 平均碩博士班修課學生人數</t>
-  </si>
-  <si>
-    <t>2.3.1.2 各系所教師兼任本校二級學術行政主管人次</t>
-  </si>
-  <si>
-    <t>3.2.1.1 舉辦國際學術研討會數</t>
   </si>
   <si>
     <t>科系</t>
@@ -147,6 +120,57 @@
   <si>
     <t>院加總</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>教育學院</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>學士班繁星推薦入學錄取率</t>
+  </si>
+  <si>
+    <t>1.1.3.4</t>
+  </si>
+  <si>
+    <t>博士班招收國內重點大學畢業生比率</t>
+  </si>
+  <si>
+    <t>1.4.1.1</t>
+  </si>
+  <si>
+    <t>學士班獲獎助學金平均金額</t>
+  </si>
+  <si>
+    <t>1.7.1.4</t>
+  </si>
+  <si>
+    <t>碩士班平均修業年限</t>
+  </si>
+  <si>
+    <t>2.1.1.2</t>
+  </si>
+  <si>
+    <t>平均碩博士班修課學生人數</t>
+  </si>
+  <si>
+    <t>2.3.1.2</t>
+  </si>
+  <si>
+    <t>各系所教師兼任本校二級學術行政主管人次</t>
+  </si>
+  <si>
+    <t>3.2.1.1</t>
+  </si>
+  <si>
+    <t>舉辦國際學術研討會數</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>無資料。</t>
   </si>
 </sst>
 </file>
@@ -463,24 +487,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -490,19 +499,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FAD8-43D5-8F91-D4A1CF5E18BA}"/>
+              <c16:uniqueId val="{00000000-EF80-4B3D-BD4F-1FA974FF0D63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -539,24 +545,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -566,19 +557,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FAD8-43D5-8F91-D4A1CF5E18BA}"/>
+              <c16:uniqueId val="{00000001-EF80-4B3D-BD4F-1FA974FF0D63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -615,24 +603,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -642,19 +615,16 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FAD8-43D5-8F91-D4A1CF5E18BA}"/>
+              <c16:uniqueId val="{00000002-EF80-4B3D-BD4F-1FA974FF0D63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -718,7 +688,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -765,7 +739,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-FAD8-43D5-8F91-D4A1CF5E18BA}"/>
+                  <c16:uniqueId val="{00000003-EF80-4B3D-BD4F-1FA974FF0D63}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -774,7 +748,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -839,24 +817,9 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -866,12 +829,9 @@
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,7 +839,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-FAD8-43D5-8F91-D4A1CF5E18BA}"/>
+              <c16:uniqueId val="{00000004-EF80-4B3D-BD4F-1FA974FF0D63}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1162,24 +1122,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1189,19 +1134,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5B59-46DB-81F0-677EA041A84E}"/>
+              <c16:uniqueId val="{00000000-565C-42FA-8B43-13EF92B3D4DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1238,24 +1180,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1265,19 +1192,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5B59-46DB-81F0-677EA041A84E}"/>
+              <c16:uniqueId val="{00000001-565C-42FA-8B43-13EF92B3D4DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1314,24 +1238,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1341,19 +1250,16 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5B59-46DB-81F0-677EA041A84E}"/>
+              <c16:uniqueId val="{00000002-565C-42FA-8B43-13EF92B3D4DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1417,7 +1323,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1464,7 +1374,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-5B59-46DB-81F0-677EA041A84E}"/>
+                  <c16:uniqueId val="{00000003-565C-42FA-8B43-13EF92B3D4DB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1473,7 +1383,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -1538,24 +1452,9 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1565,12 +1464,9 @@
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1578,7 +1474,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-5B59-46DB-81F0-677EA041A84E}"/>
+              <c16:uniqueId val="{00000004-565C-42FA-8B43-13EF92B3D4DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1861,24 +1757,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1888,19 +1769,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-171A-4F63-91DE-65A157D61A67}"/>
+              <c16:uniqueId val="{00000000-9248-4A9D-9B42-43DBAC31A3E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1937,24 +1815,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1964,19 +1827,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-171A-4F63-91DE-65A157D61A67}"/>
+              <c16:uniqueId val="{00000001-9248-4A9D-9B42-43DBAC31A3E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2013,24 +1873,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2040,19 +1885,16 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-171A-4F63-91DE-65A157D61A67}"/>
+              <c16:uniqueId val="{00000002-9248-4A9D-9B42-43DBAC31A3E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2116,7 +1958,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2163,7 +2009,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-171A-4F63-91DE-65A157D61A67}"/>
+                  <c16:uniqueId val="{00000003-9248-4A9D-9B42-43DBAC31A3E9}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2172,7 +2018,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2237,24 +2087,9 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2264,12 +2099,9 @@
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2277,7 +2109,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-171A-4F63-91DE-65A157D61A67}"/>
+              <c16:uniqueId val="{00000004-9248-4A9D-9B42-43DBAC31A3E9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2560,24 +2392,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2587,19 +2404,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E9F-4D88-9965-F9FFD0572D83}"/>
+              <c16:uniqueId val="{00000000-E8F9-40E1-AA39-C5EFA33EFDB0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2636,24 +2450,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2663,19 +2462,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2E9F-4D88-9965-F9FFD0572D83}"/>
+              <c16:uniqueId val="{00000001-E8F9-40E1-AA39-C5EFA33EFDB0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2712,24 +2508,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2739,19 +2520,16 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2E9F-4D88-9965-F9FFD0572D83}"/>
+              <c16:uniqueId val="{00000002-E8F9-40E1-AA39-C5EFA33EFDB0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2815,7 +2593,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2862,7 +2644,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2E9F-4D88-9965-F9FFD0572D83}"/>
+                  <c16:uniqueId val="{00000003-E8F9-40E1-AA39-C5EFA33EFDB0}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2871,7 +2653,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -2936,24 +2722,9 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2963,12 +2734,9 @@
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2976,7 +2744,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2E9F-4D88-9965-F9FFD0572D83}"/>
+              <c16:uniqueId val="{00000004-E8F9-40E1-AA39-C5EFA33EFDB0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3259,24 +3027,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3286,19 +3039,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2E8E-4A37-8C93-5E4F7B1B89C7}"/>
+              <c16:uniqueId val="{00000000-36AD-4498-99CC-257FA75E17BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3335,24 +3085,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3362,19 +3097,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2E8E-4A37-8C93-5E4F7B1B89C7}"/>
+              <c16:uniqueId val="{00000001-36AD-4498-99CC-257FA75E17BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3411,24 +3143,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3438,19 +3155,16 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2E8E-4A37-8C93-5E4F7B1B89C7}"/>
+              <c16:uniqueId val="{00000002-36AD-4498-99CC-257FA75E17BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3514,7 +3228,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3561,7 +3279,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2E8E-4A37-8C93-5E4F7B1B89C7}"/>
+                  <c16:uniqueId val="{00000003-36AD-4498-99CC-257FA75E17BA}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3570,7 +3288,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -3635,24 +3357,9 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院均值</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3662,12 +3369,9 @@
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3675,7 +3379,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2E8E-4A37-8C93-5E4F7B1B89C7}"/>
+              <c16:uniqueId val="{00000004-36AD-4498-99CC-257FA75E17BA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3958,24 +3662,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3985,19 +3674,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1E66-4E5B-B76B-398E19E0E6B8}"/>
+              <c16:uniqueId val="{00000000-A738-49FC-B8B3-EEF5795B61DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4034,24 +3720,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4061,19 +3732,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1E66-4E5B-B76B-398E19E0E6B8}"/>
+              <c16:uniqueId val="{00000001-A738-49FC-B8B3-EEF5795B61DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4110,24 +3778,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4137,19 +3790,16 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1E66-4E5B-B76B-398E19E0E6B8}"/>
+              <c16:uniqueId val="{00000002-A738-49FC-B8B3-EEF5795B61DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4213,7 +3863,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4260,7 +3914,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1E66-4E5B-B76B-398E19E0E6B8}"/>
+                  <c16:uniqueId val="{00000003-A738-49FC-B8B3-EEF5795B61DB}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4269,7 +3923,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4334,24 +3992,9 @@
             <c:strRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4361,12 +4004,9 @@
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4374,7 +4014,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1E66-4E5B-B76B-398E19E0E6B8}"/>
+              <c16:uniqueId val="{00000004-A738-49FC-B8B3-EEF5795B61DB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4657,24 +4297,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4684,19 +4309,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5000000000000003E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AE84-4AA8-A999-2DD9C1EF87F5}"/>
+              <c16:uniqueId val="{00000000-EA72-478A-B9AF-C27A1D92D23C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4733,24 +4355,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4760,19 +4367,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AE84-4AA8-A999-2DD9C1EF87F5}"/>
+              <c16:uniqueId val="{00000001-EA72-478A-B9AF-C27A1D92D23C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4809,24 +4413,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4836,19 +4425,16 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.04</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AE84-4AA8-A999-2DD9C1EF87F5}"/>
+              <c16:uniqueId val="{00000002-EA72-478A-B9AF-C27A1D92D23C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4912,7 +4498,11 @@
                 <a:ln>
                   <a:noFill/>
                 </a:ln>
-                <a:effectLst/>
+                <a:effectLst>
+                  <a:glow rad="63500">
+                    <a:schemeClr val="bg1"/>
+                  </a:glow>
+                </a:effectLst>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -4959,7 +4549,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-AE84-4AA8-A999-2DD9C1EF87F5}"/>
+                  <c16:uniqueId val="{00000003-EA72-478A-B9AF-C27A1D92D23C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4968,7 +4558,11 @@
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="36000" bIns="19050" anchor="ctr" anchorCtr="0">
@@ -5033,24 +4627,9 @@
             <c:strRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>院加總</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>學行碩</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>幼教所</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>教政所</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>輔諮碩</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>學行碩</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5060,12 +4639,9 @@
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5073,7 +4649,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AE84-4AA8-A999-2DD9C1EF87F5}"/>
+              <c16:uniqueId val="{00000004-EA72-478A-B9AF-C27A1D92D23C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5302,7 +4878,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A789AB84-95D3-4573-B19E-154667E1BE1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765A0451-ED1B-404F-BEC0-2A2E24EA6FFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5335,7 +4911,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22253707-8F38-4FB8-8038-675E987D175A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3145957F-E7DE-4F56-A2CB-0A5A38FBC479}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5368,7 +4944,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF45F2BF-D40E-442B-A146-DFFF2BC19ABD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE19FE1A-04A9-4279-A193-3410D19CE28E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5401,7 +4977,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E17EC34E-2B77-49A1-99EA-23E6F560C1C3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE76C4B-5645-4D28-A7B1-9C6B8288F3F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5434,7 +5010,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178FBD45-7536-4C50-9CF0-C59DAFBAFB20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318904A4-F33B-4321-B262-822B92AF7F69}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5467,7 +5043,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81304086-143C-4869-AC44-1BFBEEC3A78A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7185873-DDB0-4FB0-8D51-4EDDA2E35AAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5500,7 +5076,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DE0D42-DD01-4E12-AEFA-17F60632EA9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{697A75D9-F92A-4A5B-A1DE-8A7F520D52E8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5521,72 +5097,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="主控台"/>
-      <sheetName val="template"/>
-      <sheetName val="test1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="C1" t="str">
-            <v>三年均值</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>110年</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>109年</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>108年</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>科系1</v>
-          </cell>
-          <cell r="C2">
-            <v>0.06</v>
-          </cell>
-          <cell r="D2">
-            <v>0.06</v>
-          </cell>
-          <cell r="E2">
-            <v>0.03</v>
-          </cell>
-          <cell r="F2">
-            <v>1.4999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>院均值</v>
-          </cell>
-          <cell r="C3">
-            <v>0.05</v>
-          </cell>
-          <cell r="D3">
-            <v>0.04</v>
-          </cell>
-          <cell r="E3">
-            <v>0.01</v>
-          </cell>
-          <cell r="F3">
-            <v>3.5000000000000003E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5884,97 +5394,159 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{0E1F69DA-D941-46D2-9C0F-7F0BCAB48BD3}">
+  <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5308B9A-B020-4952-8798-1776DE9E0D1C}">
   <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="7.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>1</v>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="1.1.1.1 學士班繁星推薦入學錄取率" xr:uid="{5B092A69-E22A-4CF8-988D-BA97B63B2503}"/>
-    <hyperlink ref="A3" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="1.1.3.4 博士班招收國內重點大學畢業生比率" xr:uid="{D250DE77-77E9-4CCC-A7A1-303174C978CD}"/>
-    <hyperlink ref="A4" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="1.4.1.1 學士班獲獎助學金平均金額" xr:uid="{DF339C0E-0C1E-4B65-A120-E62C38829904}"/>
-    <hyperlink ref="A5" location="'1.7.1.4 碩士班平均修業年限'!A1" display="1.7.1.4 碩士班平均修業年限" xr:uid="{77E9C262-36A7-41D1-AD34-AA44D82E9DDB}"/>
-    <hyperlink ref="A6" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="2.1.1.2 平均碩博士班修課學生人數" xr:uid="{631F12D2-2644-4B6E-B645-2C33DFA763B9}"/>
-    <hyperlink ref="A7" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" xr:uid="{68A2361B-A29B-44C7-919C-17033133B812}"/>
-    <hyperlink ref="A8" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="3.2.1.1 舉辦國際學術研討會數" xr:uid="{013A458B-6E67-4DFC-AC9A-47DAB76BD756}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{3450A6C0-32CB-4519-A563-D26C7A972996}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{61091C81-CEE6-4935-B710-DC5F9E489BCE}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{23C5FE82-6FD7-41F7-8625-79ECEAB1488E}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{4E9BEBC1-94CD-4699-BCC7-D21DDE0053AE}"/>
+    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{08141AF1-B89C-438B-94C4-89EE0B0339B0}"/>
+    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{38799532-6541-410B-A898-44C706A2C265}"/>
+    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{70D475AE-DE5B-442B-B832-CD75F45C59D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58FA89B-AF69-46DD-949A-4C52B585B3C2}">
-  <sheetPr codeName="工作表2"/>
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749A4D56-37E6-465E-80E2-8F097EE0CA3D}">
+  <sheetPr codeName="工作表1" filterMode="1"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5987,131 +5559,184 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F7" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G7" s="9">
-        <v>999</v>
+      <c r="C7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
       <sortCondition descending="1" ref="G1:G7"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6120,12 +5745,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC5122E-AF5D-413B-B40C-68B9004C0CFD}">
-  <sheetPr codeName="工作表3"/>
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC5ADB4-1DAF-43CC-A30E-AE6AC314003F}">
+  <sheetPr codeName="工作表2" filterMode="1"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6138,131 +5763,184 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="F7" s="10">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G7" s="9">
-        <v>999</v>
+      <c r="C7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
       <sortCondition descending="1" ref="G1:G7"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6271,12 +5949,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC9E57D-15A3-4E01-9260-36F24F407F2D}">
-  <sheetPr codeName="工作表4"/>
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96100190-1986-40C1-8B74-47FC8B05B3BD}">
+  <sheetPr codeName="工作表3" filterMode="1"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6289,131 +5967,184 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="11">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.01</v>
-      </c>
-      <c r="F7" s="11">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G7" s="9">
-        <v>999</v>
+      <c r="C7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
       <sortCondition descending="1" ref="G1:G7"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6422,12 +6153,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{023B3CD6-8DD0-451A-AD6E-E4BF423DC7FC}">
-  <sheetPr codeName="工作表5"/>
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F265D4-F79B-4B05-BB8C-304CF2CD57EA}">
+  <sheetPr codeName="工作表4" filterMode="1"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6440,131 +6171,184 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F7" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G7" s="9">
-        <v>999</v>
+      <c r="C7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
       <sortCondition descending="1" ref="G1:G7"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6573,12 +6357,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3577C8B-AC67-48E4-9043-E63238A658A9}">
-  <sheetPr codeName="工作表6"/>
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CB3AA7-B538-40CF-B24E-D793F2D3E092}">
+  <sheetPr codeName="工作表5" filterMode="1"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6591,131 +6375,184 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F7" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G7" s="9">
-        <v>999</v>
+      <c r="C7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
       <sortCondition descending="1" ref="G1:G7"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6724,12 +6561,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E239D46-632F-410C-92E7-68EDEFE02436}">
-  <sheetPr codeName="工作表7"/>
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9EB293-74A3-492B-804F-21C679BE7CA6}">
+  <sheetPr codeName="工作表6" filterMode="1"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6742,131 +6579,184 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F7" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G7" s="9">
-        <v>999</v>
+      <c r="C7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
       <sortCondition descending="1" ref="G1:G7"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6875,12 +6765,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C94AEFE-402B-43D2-962F-ACD3482B4EB6}">
-  <sheetPr codeName="工作表8"/>
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB34815-393A-485C-BFE9-B958391F98B4}">
+  <sheetPr codeName="工作表7" filterMode="1"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6893,131 +6783,184 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="9">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="B4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0.03</v>
-      </c>
-      <c r="F2" s="12">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="12">
-        <v>0.05</v>
-      </c>
-      <c r="D7" s="12">
-        <v>0.04</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.01</v>
-      </c>
-      <c r="F7" s="12">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="G7" s="9">
-        <v>999</v>
+      <c r="C7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val="-"/>
+      </customFilters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
       <sortCondition descending="1" ref="G1:G7"/>
     </sortState>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+    <sortCondition ref="G2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/test/1. 各院彙整資料/教育學院.xlsx
+++ b/test/1. 各院彙整資料/教育學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EB21A6-4778-49EA-91A0-3D21AC782D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474B5A87-205A-4DB4-98A9-D1ACE776FABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{07B1728A-975C-48A9-AC85-6811657E39C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{C2393678-D71F-40FE-A2FB-F71793F5FB11}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="72" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="73" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="74" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="75" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="76" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="77" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="78" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$7</definedName>
@@ -50,79 +50,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="46">
+  <si>
+    <t>900 教育學院（院加總 / 院均值）</t>
+  </si>
+  <si>
+    <t>教育學院</t>
+  </si>
+  <si>
+    <t>102 教育學系</t>
+  </si>
   <si>
     <t>學行碩</t>
+  </si>
+  <si>
+    <t>157 幼兒教育研究所</t>
   </si>
   <si>
     <t>幼教所</t>
   </si>
   <si>
+    <t>171 教育行政與政策研究所</t>
+  </si>
+  <si>
     <t>教政所</t>
+  </si>
+  <si>
+    <t>172 輔導與諮商碩士學位學程</t>
   </si>
   <si>
     <t>輔諮碩</t>
   </si>
   <si>
-    <t>科系</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡稱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>三年均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>110年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>109年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>108年</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序欄</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>院均值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>900 教育學院（院加總 / 院均值）</t>
-  </si>
-  <si>
-    <t>102 教育學系</t>
-  </si>
-  <si>
-    <t>157 幼兒教育研究所</t>
-  </si>
-  <si>
-    <t>171 教育行政與政策研究所</t>
-  </si>
-  <si>
-    <t>172 輔導與諮商碩士學位學程</t>
-  </si>
-  <si>
     <t>911 學校行政碩士在職專班</t>
-  </si>
-  <si>
-    <t>學行碩</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>院加總</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>教育學院</t>
   </si>
   <si>
     <t>1.1.1.1</t>
@@ -167,21 +127,98 @@
     <t>舉辦國際學術研討會數</t>
   </si>
   <si>
-    <t>-</t>
+    <t>科系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡稱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>三年均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>110年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>109年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>108年</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序欄</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>院均值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>學行碩</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>院加總</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>小結 3</t>
+  </si>
+  <si>
+    <t>小結 2</t>
+  </si>
+  <si>
+    <t>小結 1</t>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為5.91%，低於（或等於）院三年均值者計有1個系，為學行碩5.91%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為42,303，高於（或等於）院三年均值者計有1個系，為學行碩42,303。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為3.62，低於院三年均值者計有2個系，為學行碩3.13、教政所3.22。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為10.66，高於院三年均值者計有1個系，為教政所12.07。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>無資料。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為40%，高於（或等於）院三年均值者計有1個系，為學行碩40%。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00%;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;&quot;—&quot;;&quot;—&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00;&quot;—&quot;;&quot;—&quot;"/>
+    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
+    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
+    <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -364,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,15 +436,27 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="3" xr:uid="{F2C447B3-9E1F-441C-946A-EB45E7A5EF26}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{F8CF32C5-B9DA-4ABA-80E4-D29BB586D924}"/>
-    <cellStyle name="百分比 2" xfId="4" xr:uid="{88A9700F-60EA-4CBF-8E6E-A402733EED3A}"/>
+    <cellStyle name="一般 2" xfId="3" xr:uid="{07E32A68-8802-40F3-A24E-5E5BC4BFE431}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{4A13467C-421C-4C03-8C71-7845C085406F}"/>
+    <cellStyle name="百分比 2" xfId="4" xr:uid="{69683EC9-A584-4682-9C8C-349076C90193}"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -487,8 +536,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -498,17 +550,20 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$F$2:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.4800000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4800000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EF80-4B3D-BD4F-1FA974FF0D63}"/>
+              <c16:uniqueId val="{00000000-BEAA-4722-9F96-4466FA132D9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -545,8 +600,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -556,17 +614,20 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$E$2:$E$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.7599999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.7599999999999998E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EF80-4B3D-BD4F-1FA974FF0D63}"/>
+              <c16:uniqueId val="{00000001-BEAA-4722-9F96-4466FA132D9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -603,8 +664,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -614,17 +678,20 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$D$2:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.6100000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6100000000000006E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EF80-4B3D-BD4F-1FA974FF0D63}"/>
+              <c16:uniqueId val="{00000002-BEAA-4722-9F96-4466FA132D9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -739,7 +806,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-EF80-4B3D-BD4F-1FA974FF0D63}"/>
+                  <c16:uniqueId val="{00000003-BEAA-4722-9F96-4466FA132D9E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -817,8 +884,11 @@
             <c:strRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -828,10 +898,13 @@
             <c:numRef>
               <c:f>'1.1.1.1 學士班繁星推薦入學錄取率'!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.91E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.91E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -839,7 +912,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EF80-4B3D-BD4F-1FA974FF0D63}"/>
+              <c16:uniqueId val="{00000004-BEAA-4722-9F96-4466FA132D9E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -939,7 +1012,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1122,8 +1195,11 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1133,17 +1209,20 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$F$2:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.36840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36840000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-565C-42FA-8B43-13EF92B3D4DB}"/>
+              <c16:uniqueId val="{00000000-1368-47CA-8945-FF0EC241FB7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1180,8 +1259,11 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1191,17 +1273,20 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$E$2:$E$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.36840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36840000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-565C-42FA-8B43-13EF92B3D4DB}"/>
+              <c16:uniqueId val="{00000001-1368-47CA-8945-FF0EC241FB7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1238,8 +1323,11 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1249,17 +1337,20 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$D$2:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###.##%;\-###.##%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.45450000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45450000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-565C-42FA-8B43-13EF92B3D4DB}"/>
+              <c16:uniqueId val="{00000002-1368-47CA-8945-FF0EC241FB7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1374,7 +1465,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-565C-42FA-8B43-13EF92B3D4DB}"/>
+                  <c16:uniqueId val="{00000003-1368-47CA-8945-FF0EC241FB7C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1452,8 +1543,11 @@
             <c:strRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1463,10 +1557,13 @@
             <c:numRef>
               <c:f>'1.1.3.4 博士班招收國內重點大學畢業生比率'!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00%;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>###%;###%;0%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1474,7 +1571,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-565C-42FA-8B43-13EF92B3D4DB}"/>
+              <c16:uniqueId val="{00000004-1368-47CA-8945-FF0EC241FB7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1574,7 +1671,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0%;\-0%;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1757,8 +1854,23 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>幼教所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>教政所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>輔諮碩</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1768,17 +1880,32 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$F$2:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="#,##0;\-#,###;0">
+                  <c:v>37059</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0;\-#,###;0">
+                  <c:v>37058.910000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9248-4A9D-9B42-43DBAC31A3E9}"/>
+              <c16:uniqueId val="{00000000-61F9-4218-BD6D-319E39578E84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1815,8 +1942,23 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>幼教所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>教政所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>輔諮碩</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1826,17 +1968,32 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$E$2:$E$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="#,##0;\-#,###;0">
+                  <c:v>47193.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0;\-#,###;0">
+                  <c:v>47193.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9248-4A9D-9B42-43DBAC31A3E9}"/>
+              <c16:uniqueId val="{00000001-61F9-4218-BD6D-319E39578E84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1873,8 +2030,23 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>幼教所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>教政所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>輔諮碩</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -1884,17 +2056,32 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$D$2:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>"—"</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="#,##0;\-#,###;0">
+                  <c:v>43030.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0;\-#,###;0">
+                  <c:v>43030.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9248-4A9D-9B42-43DBAC31A3E9}"/>
+              <c16:uniqueId val="{00000002-61F9-4218-BD6D-319E39578E84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2009,7 +2196,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9248-4A9D-9B42-43DBAC31A3E9}"/>
+                  <c16:uniqueId val="{00000003-61F9-4218-BD6D-319E39578E84}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2087,8 +2274,23 @@
             <c:strRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>幼教所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>教政所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>輔諮碩</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2098,10 +2300,25 @@
             <c:numRef>
               <c:f>'1.4.1.1 學士班獲獎助學金平均金額'!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:formatCode>#,##0;\-#,###;0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>42302.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42302.53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2109,7 +2326,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9248-4A9D-9B42-43DBAC31A3E9}"/>
+              <c16:uniqueId val="{00000004-61F9-4218-BD6D-319E39578E84}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2209,7 +2426,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2392,8 +2609,23 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>教政所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>幼教所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>輔諮碩</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2403,17 +2635,32 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$F$2:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,###;#,###;0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E8F9-40E1-AA39-C5EFA33EFDB0}"/>
+              <c16:uniqueId val="{00000000-8734-4239-A13D-6B9BA569C414}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2450,8 +2697,23 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>教政所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>幼教所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>輔諮碩</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2461,17 +2723,32 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$E$2:$E$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0199999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E8F9-40E1-AA39-C5EFA33EFDB0}"/>
+              <c16:uniqueId val="{00000001-8734-4239-A13D-6B9BA569C414}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2508,8 +2785,23 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>教政所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>幼教所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>輔諮碩</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2519,17 +2811,32 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$D$2:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.44</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.38</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="#,##0.##;\-#,##0.##;0">
+                  <c:v>3.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E8F9-40E1-AA39-C5EFA33EFDB0}"/>
+              <c16:uniqueId val="{00000002-8734-4239-A13D-6B9BA569C414}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2644,7 +2951,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-E8F9-40E1-AA39-C5EFA33EFDB0}"/>
+                  <c16:uniqueId val="{00000003-8734-4239-A13D-6B9BA569C414}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2722,8 +3029,23 @@
             <c:strRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>教政所</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>幼教所</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>輔諮碩</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -2733,10 +3055,25 @@
             <c:numRef>
               <c:f>'1.7.1.4 碩士班平均修業年限'!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2744,7 +3081,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E8F9-40E1-AA39-C5EFA33EFDB0}"/>
+              <c16:uniqueId val="{00000004-8734-4239-A13D-6B9BA569C414}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2844,7 +3181,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3027,8 +3364,20 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>教政所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>輔諮碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>幼教所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3038,17 +3387,29 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$F$2:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.9700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-36AD-4498-99CC-257FA75E17BA}"/>
+              <c16:uniqueId val="{00000000-BCF4-47C0-A174-4A79AFEF3038}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3085,8 +3446,20 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>教政所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>輔諮碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>幼教所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3096,17 +3469,29 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$E$2:$E$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-36AD-4498-99CC-257FA75E17BA}"/>
+              <c16:uniqueId val="{00000001-BCF4-47C0-A174-4A79AFEF3038}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3143,8 +3528,20 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>教政所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>輔諮碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>幼教所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3154,17 +3551,29 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$D$2:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="#,###;#,###;0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-36AD-4498-99CC-257FA75E17BA}"/>
+              <c16:uniqueId val="{00000002-BCF4-47C0-A174-4A79AFEF3038}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3279,7 +3688,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-36AD-4498-99CC-257FA75E17BA}"/>
+                  <c16:uniqueId val="{00000003-BCF4-47C0-A174-4A79AFEF3038}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3357,8 +3766,20 @@
             <c:strRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$B$2:$B$7</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>教政所</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>輔諮碩</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>學行碩</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>幼教所</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>院均值</c:v>
                 </c:pt>
               </c:strCache>
@@ -3368,10 +3789,22 @@
             <c:numRef>
               <c:f>'2.1.1.2 平均碩博士班修課學生人數'!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.84</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3379,7 +3812,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-36AD-4498-99CC-257FA75E17BA}"/>
+              <c16:uniqueId val="{00000004-BCF4-47C0-A174-4A79AFEF3038}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3479,7 +3912,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0;\-#,###;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3673,7 +4106,7 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$F$2:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3683,7 +4116,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A738-49FC-B8B3-EEF5795B61DB}"/>
+              <c16:uniqueId val="{00000000-1927-4FB9-8686-158147208680}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3731,17 +4164,17 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$E$2:$E$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A738-49FC-B8B3-EEF5795B61DB}"/>
+              <c16:uniqueId val="{00000001-1927-4FB9-8686-158147208680}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3789,17 +4222,17 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$D$2:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>#,###;#,###;0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A738-49FC-B8B3-EEF5795B61DB}"/>
+              <c16:uniqueId val="{00000002-1927-4FB9-8686-158147208680}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3914,7 +4347,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A738-49FC-B8B3-EEF5795B61DB}"/>
+                  <c16:uniqueId val="{00000003-1927-4FB9-8686-158147208680}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4003,10 +4436,10 @@
             <c:numRef>
               <c:f>'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>#,##0.##;\-#,##0.##;0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4014,7 +4447,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A738-49FC-B8B3-EEF5795B61DB}"/>
+              <c16:uniqueId val="{00000004-1927-4FB9-8686-158147208680}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4114,7 +4547,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4308,7 +4741,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$F$2:$F$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4318,7 +4751,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EA72-478A-B9AF-C27A1D92D23C}"/>
+              <c16:uniqueId val="{00000000-9F06-4FBF-88B7-02D92F65D65D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4366,7 +4799,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$E$2:$E$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4376,7 +4809,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EA72-478A-B9AF-C27A1D92D23C}"/>
+              <c16:uniqueId val="{00000001-9F06-4FBF-88B7-02D92F65D65D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4424,7 +4857,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$D$2:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4434,7 +4867,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EA72-478A-B9AF-C27A1D92D23C}"/>
+              <c16:uniqueId val="{00000002-9F06-4FBF-88B7-02D92F65D65D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4549,7 +4982,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-EA72-478A-B9AF-C27A1D92D23C}"/>
+                  <c16:uniqueId val="{00000003-9F06-4FBF-88B7-02D92F65D65D}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4638,7 +5071,7 @@
             <c:numRef>
               <c:f>'3.2.1.1 舉辦國際學術研討會數'!$C$2:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00;"—";"—"</c:formatCode>
+                <c:formatCode>"—"</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4649,7 +5082,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EA72-478A-B9AF-C27A1D92D23C}"/>
+              <c16:uniqueId val="{00000004-9F06-4FBF-88B7-02D92F65D65D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4749,7 +5182,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0;\-0.0;0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4878,7 +5311,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765A0451-ED1B-404F-BEC0-2A2E24EA6FFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F124D06-EF5A-42D9-A367-C31AB7B2FB55}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4911,7 +5344,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3145957F-E7DE-4F56-A2CB-0A5A38FBC479}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8F6D3E-551D-400D-88CC-BF7D28CB7A24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4944,7 +5377,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE19FE1A-04A9-4279-A193-3410D19CE28E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDC158C-AD83-43E2-BC80-680CD74D911B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4977,7 +5410,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCE76C4B-5645-4D28-A7B1-9C6B8288F3F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80863EF9-C33E-45C2-AE19-8404462D6F37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5010,7 +5443,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318904A4-F33B-4321-B262-822B92AF7F69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E3247A-EDCD-4D05-9DA2-0F8F6D903471}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5043,7 +5476,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7185873-DDB0-4FB0-8D51-4EDDA2E35AAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4192DA1-CEFB-42B3-BA68-99A995CDCDE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5076,7 +5509,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{697A75D9-F92A-4A5B-A1DE-8A7F520D52E8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F3ED9B-2311-40E9-9C20-4C3E85F45793}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5403,7 +5836,7 @@
 </file>
 
 <file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{0E1F69DA-D941-46D2-9C0F-7F0BCAB48BD3}">
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{86AE650C-4BDF-4C4C-BFEF-19264BC8C198}">
   <we:reference id="wa104380862" version="1.5.0.0" store="zh-TW" storeType="OMEX"/>
   <we:alternateReferences>
     <we:reference id="wa104380862" version="1.5.0.0" store="" storeType="OMEX"/>
@@ -5415,9 +5848,9 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5308B9A-B020-4952-8798-1776DE9E0D1C}">
-  <sheetPr codeName="工作表1"/>
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{723193E2-D2B8-4302-8CCC-49CD024A5F0B}">
+  <sheetPr codeName="工作表8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5431,310 +5864,484 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="C4" s="12">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="12">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+      <c r="E5" s="12">
+        <v>2</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="12">
+        <v>1</v>
+      </c>
+      <c r="D7" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2</v>
+      </c>
+      <c r="F7" s="12">
+        <v>3</v>
+      </c>
+      <c r="G7" s="12">
+        <v>3.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="12">
+        <v>3</v>
+      </c>
+      <c r="D8" s="12">
+        <v>4</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1.33</v>
+      </c>
+      <c r="D10" s="12">
+        <v>2.88</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2.75</v>
+      </c>
+      <c r="G10" s="12">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1.33</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2.88</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1.75</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2.75</v>
+      </c>
+      <c r="G12" s="12">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{3450A6C0-32CB-4519-A563-D26C7A972996}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{61091C81-CEE6-4935-B710-DC5F9E489BCE}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{23C5FE82-6FD7-41F7-8625-79ECEAB1488E}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{4E9BEBC1-94CD-4699-BCC7-D21DDE0053AE}"/>
-    <hyperlink ref="B7" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{08141AF1-B89C-438B-94C4-89EE0B0339B0}"/>
-    <hyperlink ref="B8" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{38799532-6541-410B-A898-44C706A2C265}"/>
-    <hyperlink ref="B9" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{70D475AE-DE5B-442B-B832-CD75F45C59D8}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{5B22103B-C8D1-4B6B-9E75-54DC61D394B5}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{F7DBEA92-F3DE-4A4F-84BC-03C38C2C4D7D}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{9860AE6B-4286-47A6-81AB-7DD25B3D7353}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{BA4E0912-5C21-4430-BFCA-CC64BE87B496}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{54BD4858-A7E7-4CF4-A78A-6262D7D50182}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{5EFA19D4-2A0E-48CC-823C-6B1143771749}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{9212B14F-8190-4488-8AA2-0DB50402F642}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{749A4D56-37E6-465E-80E2-8F097EE0CA3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32938F81-69B6-43C4-A6E9-AF820B46BDD2}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="6.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="13">
+        <v>5.91E-2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="E2" s="13">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="F2" s="13">
+        <v>5.4800000000000001E-2</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="13">
+        <v>5.91E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="E3" s="13">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="G3" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-      <sortCondition descending="1" ref="G1:G7"/>
+      <sortCondition ref="G1:G7"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5745,200 +6352,201 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CC5ADB4-1DAF-43CC-A30E-AE6AC314003F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E8CDAC-41F2-461A-9938-5BD3A128F418}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="5.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.36840000000000001</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.45450000000000002</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="G3" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-      <sortCondition descending="1" ref="G1:G7"/>
+      <sortCondition ref="G1:G7"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5949,200 +6557,200 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96100190-1986-40C1-8B74-47FC8B05B3BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6CC30A-7BBE-40AF-94B6-691AAEF4F672}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="11">
+        <v>42302.53</v>
+      </c>
+      <c r="D2" s="11">
+        <v>43030.36</v>
+      </c>
+      <c r="E2" s="11">
+        <v>47193.33</v>
+      </c>
+      <c r="F2" s="11">
+        <v>37059</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="11">
+        <v>42302.53</v>
+      </c>
+      <c r="D7" s="11">
+        <v>43030.36</v>
+      </c>
+      <c r="E7" s="11">
+        <v>47193.33</v>
+      </c>
+      <c r="F7" s="11">
+        <v>37058.910000000003</v>
+      </c>
+      <c r="G7" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-      <sortCondition descending="1" ref="G1:G7"/>
+      <sortCondition ref="G1:G7"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6153,200 +6761,200 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F265D4-F79B-4B05-BB8C-304CF2CD57EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5ABE74-5845-4FDA-83E3-C478B20BD977}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="15">
+        <v>3.13</v>
+      </c>
+      <c r="D2" s="15">
+        <v>3.67</v>
+      </c>
+      <c r="E2" s="15">
+        <v>3.57</v>
+      </c>
+      <c r="F2" s="15">
+        <v>2.9</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="15">
+        <v>3.22</v>
+      </c>
+      <c r="D3" s="16">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15">
+        <v>3.92</v>
+      </c>
+      <c r="F3" s="15">
+        <v>2.8</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3.67</v>
+      </c>
+      <c r="D4" s="15">
+        <v>3.44</v>
+      </c>
+      <c r="E4" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="F4" s="15">
+        <v>3.9</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="15">
+        <v>3.89</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3.38</v>
+      </c>
+      <c r="E5" s="15">
+        <v>4.07</v>
+      </c>
+      <c r="F5" s="16">
+        <v>4</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="15">
+        <v>3.97</v>
+      </c>
+      <c r="D6" s="15">
+        <v>3.76</v>
+      </c>
+      <c r="E6" s="15">
+        <v>4.2</v>
+      </c>
+      <c r="F6" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="15">
+        <v>3.62</v>
+      </c>
+      <c r="D7" s="15">
+        <v>3.48</v>
+      </c>
+      <c r="E7" s="15">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F7" s="15">
+        <v>3.39</v>
+      </c>
+      <c r="G7" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-      <sortCondition descending="1" ref="G1:G7"/>
+      <sortCondition ref="G1:G7"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6357,200 +6965,200 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55CB3AA7-B538-40CF-B24E-D793F2D3E092}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4BC0EF-0273-4722-AE8F-591AF8C307F8}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="15">
+        <v>12.07</v>
+      </c>
+      <c r="D2" s="16">
+        <v>14</v>
+      </c>
+      <c r="E2" s="15">
+        <v>12.11</v>
+      </c>
+      <c r="F2" s="15">
+        <v>10.11</v>
       </c>
       <c r="G2" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="15">
+        <v>9.07</v>
+      </c>
+      <c r="D3" s="15">
+        <v>10.11</v>
+      </c>
+      <c r="E3" s="15">
+        <v>7.25</v>
+      </c>
+      <c r="F3" s="15">
+        <v>10.19</v>
+      </c>
+      <c r="G3" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="15">
+        <v>8.64</v>
+      </c>
+      <c r="D4" s="15">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="E4" s="15">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="F4" s="15">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="G4" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="15">
+        <v>6.84</v>
+      </c>
+      <c r="D5" s="15">
+        <v>6.09</v>
+      </c>
+      <c r="E5" s="15">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="F5" s="15">
+        <v>6.47</v>
+      </c>
+      <c r="G5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="15">
+        <v>10.66</v>
+      </c>
+      <c r="D6" s="15">
+        <v>10.24</v>
+      </c>
+      <c r="E6" s="15">
+        <v>10.55</v>
+      </c>
+      <c r="F6" s="15">
+        <v>11.28</v>
+      </c>
+      <c r="G6" s="9">
         <v>999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-      <sortCondition descending="1" ref="G1:G7"/>
+      <sortCondition ref="G1:G7"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6561,68 +7169,69 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9EB293-74A3-492B-804F-21C679BE7CA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F45BE6-249B-4E8B-A3D1-EA02061B04F5}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.67</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
+        <v>0</v>
       </c>
       <c r="G2" s="9">
         <v>999</v>
@@ -6630,128 +7239,128 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-      <sortCondition descending="1" ref="G1:G7"/>
+      <sortCondition ref="G1:G7"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
@@ -6765,68 +7374,68 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB34815-393A-485C-BFE9-B958391F98B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFCE9D7-C8EB-43D9-8A96-710D55C453B5}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
-    <col min="4" max="8" width="9" style="6"/>
+    <col min="3" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="G2" s="9">
         <v>999</v>
@@ -6834,128 +7443,128 @@
     </row>
     <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>35</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>35</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>35</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G7" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
       <customFilters>
-        <customFilter operator="notEqual" val="-"/>
+        <customFilter operator="notEqual" val="—"/>
       </customFilters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
-      <sortCondition descending="1" ref="G1:G7"/>
+      <sortCondition ref="G1:G7"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">

--- a/test/1. 各院彙整資料/教育學院.xlsx
+++ b/test/1. 各院彙整資料/教育學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474B5A87-205A-4DB4-98A9-D1ACE776FABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6CD519-14D0-4FF3-B21B-3FADAD12DD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{C2393678-D71F-40FE-A2FB-F71793F5FB11}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{C2393678-D71F-40FE-A2FB-F71793F5FB11}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="93" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="94" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="95" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="96" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="97" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="98" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="99" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$7</definedName>
@@ -173,38 +173,31 @@
     <t>小結 3</t>
   </si>
   <si>
-    <t>小結 2</t>
+    <t>平均 1</t>
   </si>
   <si>
-    <t>小結 1</t>
+    <t>平均 2</t>
   </si>
   <si>
     <t>—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為5.91%，低於（或等於）院三年均值者計有1個系，為學行碩5.91%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>院三年均值為40%，高於（或等於）院三年均值者計有1個系，為學行碩40%。</t>
   </si>
   <si>
     <t>院三年均值為42,303，高於（或等於）院三年均值者計有1個系，為學行碩42,303。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為3.62，低於院三年均值者計有2個系，為學行碩3.13、教政所3.22。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>院三年均值為10.66，高於院三年均值者計有1個系，為教政所12.07。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>無資料。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>院三年均值為40%，高於（或等於）院三年均值者計有1個系，為學行碩40%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -213,10 +206,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="&quot;—&quot;"/>
-    <numFmt numFmtId="178" formatCode="#,##0;\-#,###;0"/>
-    <numFmt numFmtId="179" formatCode="###.##%;\-###.##%;0%"/>
-    <numFmt numFmtId="180" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="177" formatCode="###.##%;\-###.##%;0%"/>
+    <numFmt numFmtId="178" formatCode="&quot;—&quot;"/>
+    <numFmt numFmtId="179" formatCode="###%;###%;0%"/>
+    <numFmt numFmtId="180" formatCode="#,##0;\-#,###;0"/>
     <numFmt numFmtId="181" formatCode="#,##0.##;\-#,##0.##;0"/>
     <numFmt numFmtId="182" formatCode="#,###;#,###;0"/>
   </numFmts>
@@ -436,9 +429,6 @@
     <xf numFmtId="178" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -449,6 +439,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="12" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -563,7 +556,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BEAA-4722-9F96-4466FA132D9E}"/>
+              <c16:uniqueId val="{00000000-B6E8-4A61-B090-4104E6CEFD23}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -627,7 +620,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BEAA-4722-9F96-4466FA132D9E}"/>
+              <c16:uniqueId val="{00000001-B6E8-4A61-B090-4104E6CEFD23}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -691,7 +684,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BEAA-4722-9F96-4466FA132D9E}"/>
+              <c16:uniqueId val="{00000002-B6E8-4A61-B090-4104E6CEFD23}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -749,7 +742,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -804,9 +797,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-BEAA-4722-9F96-4466FA132D9E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -912,7 +902,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BEAA-4722-9F96-4466FA132D9E}"/>
+              <c16:uniqueId val="{00000004-B6E8-4A61-B090-4104E6CEFD23}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1222,7 +1212,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1368-47CA-8945-FF0EC241FB7C}"/>
+              <c16:uniqueId val="{00000000-20E3-4CE6-9D5F-A408ECCCFE19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1286,7 +1276,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1368-47CA-8945-FF0EC241FB7C}"/>
+              <c16:uniqueId val="{00000001-20E3-4CE6-9D5F-A408ECCCFE19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1350,7 +1340,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1368-47CA-8945-FF0EC241FB7C}"/>
+              <c16:uniqueId val="{00000002-20E3-4CE6-9D5F-A408ECCCFE19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1408,7 +1398,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="1"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -1463,9 +1453,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1368-47CA-8945-FF0EC241FB7C}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1571,7 +1558,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1368-47CA-8945-FF0EC241FB7C}"/>
+              <c16:uniqueId val="{00000004-20E3-4CE6-9D5F-A408ECCCFE19}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1905,7 +1892,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-61F9-4218-BD6D-319E39578E84}"/>
+              <c16:uniqueId val="{00000000-1F0C-4192-8BEE-C6B05C8C4CC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1993,7 +1980,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-61F9-4218-BD6D-319E39578E84}"/>
+              <c16:uniqueId val="{00000001-1F0C-4192-8BEE-C6B05C8C4CC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2081,7 +2068,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-61F9-4218-BD6D-319E39578E84}"/>
+              <c16:uniqueId val="{00000002-1F0C-4192-8BEE-C6B05C8C4CC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2139,7 +2126,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="5"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2194,9 +2181,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-61F9-4218-BD6D-319E39578E84}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -2326,7 +2310,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-61F9-4218-BD6D-319E39578E84}"/>
+              <c16:uniqueId val="{00000004-1F0C-4192-8BEE-C6B05C8C4CC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2660,7 +2644,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8734-4239-A13D-6B9BA569C414}"/>
+              <c16:uniqueId val="{00000000-D2F1-4833-B5C6-60D80AEBE261}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2748,7 +2732,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8734-4239-A13D-6B9BA569C414}"/>
+              <c16:uniqueId val="{00000001-D2F1-4833-B5C6-60D80AEBE261}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2836,7 +2820,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-8734-4239-A13D-6B9BA569C414}"/>
+              <c16:uniqueId val="{00000002-D2F1-4833-B5C6-60D80AEBE261}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2894,7 +2878,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="5"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -2949,9 +2933,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-8734-4239-A13D-6B9BA569C414}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3081,7 +3062,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8734-4239-A13D-6B9BA569C414}"/>
+              <c16:uniqueId val="{00000004-D2F1-4833-B5C6-60D80AEBE261}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3409,7 +3390,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BCF4-47C0-A174-4A79AFEF3038}"/>
+              <c16:uniqueId val="{00000000-89D5-41CD-97CA-996A89956A8D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3491,7 +3472,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BCF4-47C0-A174-4A79AFEF3038}"/>
+              <c16:uniqueId val="{00000001-89D5-41CD-97CA-996A89956A8D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3573,7 +3554,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BCF4-47C0-A174-4A79AFEF3038}"/>
+              <c16:uniqueId val="{00000002-89D5-41CD-97CA-996A89956A8D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3631,7 +3612,7 @@
           </c:marker>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
+              <c:idx val="4"/>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -3686,9 +3667,6 @@
                       <a:avLst/>
                     </a:prstGeom>
                   </c15:spPr>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-BCF4-47C0-A174-4A79AFEF3038}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -3812,7 +3790,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BCF4-47C0-A174-4A79AFEF3038}"/>
+              <c16:uniqueId val="{00000004-89D5-41CD-97CA-996A89956A8D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4116,7 +4094,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1927-4FB9-8686-158147208680}"/>
+              <c16:uniqueId val="{00000000-2D48-4527-822C-1DBBD231A5D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4174,7 +4152,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1927-4FB9-8686-158147208680}"/>
+              <c16:uniqueId val="{00000001-2D48-4527-822C-1DBBD231A5D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4232,7 +4210,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1927-4FB9-8686-158147208680}"/>
+              <c16:uniqueId val="{00000002-2D48-4527-822C-1DBBD231A5D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4347,7 +4325,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-1927-4FB9-8686-158147208680}"/>
+                  <c16:uniqueId val="{00000003-2D48-4527-822C-1DBBD231A5D6}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4447,7 +4425,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1927-4FB9-8686-158147208680}"/>
+              <c16:uniqueId val="{00000004-2D48-4527-822C-1DBBD231A5D6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4751,7 +4729,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9F06-4FBF-88B7-02D92F65D65D}"/>
+              <c16:uniqueId val="{00000000-A67F-4D58-A7F9-D766D01BF561}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4809,7 +4787,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9F06-4FBF-88B7-02D92F65D65D}"/>
+              <c16:uniqueId val="{00000001-A67F-4D58-A7F9-D766D01BF561}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4867,7 +4845,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9F06-4FBF-88B7-02D92F65D65D}"/>
+              <c16:uniqueId val="{00000002-A67F-4D58-A7F9-D766D01BF561}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4982,7 +4960,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-9F06-4FBF-88B7-02D92F65D65D}"/>
+                  <c16:uniqueId val="{00000003-A67F-4D58-A7F9-D766D01BF561}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5082,7 +5060,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9F06-4FBF-88B7-02D92F65D65D}"/>
+              <c16:uniqueId val="{00000004-A67F-4D58-A7F9-D766D01BF561}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5311,7 +5289,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F124D06-EF5A-42D9-A367-C31AB7B2FB55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7849958E-0C33-43CB-9BFF-7BDC33C81FDA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5344,7 +5322,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8F6D3E-551D-400D-88CC-BF7D28CB7A24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0803F02A-CA8F-412E-BBD3-A8858C369D15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5377,7 +5355,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDC158C-AD83-43E2-BC80-680CD74D911B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8ADF3C-7FC8-4AD9-BFB7-478051436E3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5410,7 +5388,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80863EF9-C33E-45C2-AE19-8404462D6F37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2555C209-1A06-4DEE-B9A6-A6227118AE35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5443,7 +5421,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57E3247A-EDCD-4D05-9DA2-0F8F6D903471}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1C0F22-920B-4328-A2A6-C165C6678002}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5476,7 +5454,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4192DA1-CEFB-42B3-BA68-99A995CDCDE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A012AFC-ADD5-4722-A054-7E8C50247AE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5509,7 +5487,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F3ED9B-2311-40E9-9C20-4C3E85F45793}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAEA1B88-DDEC-40B6-847E-C8C82C2C70FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5909,19 +5887,19 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="16">
         <v>1</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="12" t="s">
+      <c r="D3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5932,19 +5910,19 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="16">
         <v>1</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="D4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5955,19 +5933,19 @@
       <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="16">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="16">
         <v>2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="16">
         <v>2</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="16">
         <v>2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="16">
         <v>2</v>
       </c>
     </row>
@@ -5978,19 +5956,19 @@
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="16">
         <v>1</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="16">
         <v>3</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="16">
         <v>2</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="16">
         <v>4</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="16">
         <v>5</v>
       </c>
     </row>
@@ -5999,21 +5977,21 @@
         <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="12">
+        <v>37</v>
+      </c>
+      <c r="C7" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="16">
         <v>2.5</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="16">
         <v>2</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="16">
         <v>3</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="16">
         <v>3.5</v>
       </c>
     </row>
@@ -6024,19 +6002,19 @@
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="16">
         <v>3</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="16">
         <v>4</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="16">
         <v>1</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="16">
         <v>2</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6047,19 +6025,19 @@
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="C9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6068,21 +6046,21 @@
         <v>35</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="12">
+        <v>38</v>
+      </c>
+      <c r="C10" s="16">
         <v>1.33</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="16">
         <v>2.88</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="16">
         <v>1.75</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="16">
         <v>2.75</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="16">
         <v>3.5</v>
       </c>
     </row>
@@ -6093,19 +6071,19 @@
       <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="12" t="s">
+      <c r="C11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -6116,39 +6094,39 @@
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="16">
         <v>1.33</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="16">
         <v>2.88</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="16">
         <v>1.75</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="16">
         <v>2.75</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="16">
         <v>3.5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{5B22103B-C8D1-4B6B-9E75-54DC61D394B5}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{F7DBEA92-F3DE-4A4F-84BC-03C38C2C4D7D}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{9860AE6B-4286-47A6-81AB-7DD25B3D7353}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{BA4E0912-5C21-4430-BFCA-CC64BE87B496}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{54BD4858-A7E7-4CF4-A78A-6262D7D50182}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{5EFA19D4-2A0E-48CC-823C-6B1143771749}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{9212B14F-8190-4488-8AA2-0DB50402F642}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{269B4EC2-1ED8-4F6D-87D5-96FE56520D9F}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{A45B28BE-384D-496A-AEB8-15B78711BC93}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{363E48BA-5856-4302-8C81-444F05CA0FF4}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{45C4B51A-2B2E-4C6F-8CD2-A779A6395E34}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{38C2081C-C095-48C0-A32A-6B5FED16C5C0}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{E5E980A5-5DDC-410E-939C-36CA8B8239AB}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{F6040913-F448-44FF-B3E1-55B72BF18118}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32938F81-69B6-43C4-A6E9-AF820B46BDD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225C2EAC-CAEC-4E55-9EFC-A98E60038BCF}">
   <sheetPr codeName="工作表1" filterMode="1"/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -6199,16 +6177,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>5.91E-2</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>6.6100000000000006E-2</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>5.4800000000000001E-2</v>
       </c>
       <c r="G2" s="9">
@@ -6222,16 +6200,16 @@
       <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>5.91E-2</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>6.6100000000000006E-2</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>5.4800000000000001E-2</v>
       </c>
       <c r="G3" s="9">
@@ -6245,16 +6223,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6268,16 +6246,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -6291,16 +6269,16 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -6314,16 +6292,16 @@
       <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -6341,7 +6319,7 @@
       <sortCondition ref="G1:G7"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6352,7 +6330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E8CDAC-41F2-461A-9938-5BD3A128F418}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC4C6F1-ECF4-4624-A1D7-266523F6A5C7}">
   <sheetPr codeName="工作表2" filterMode="1"/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -6364,8 +6342,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="5.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="7.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="7.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6394,7 +6371,7 @@
         <v>31</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -6404,16 +6381,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="12">
         <v>0.4</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="10">
         <v>0.45450000000000002</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="10">
         <v>0.36840000000000001</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="10">
         <v>0.36840000000000001</v>
       </c>
       <c r="G2" s="9">
@@ -6427,16 +6404,16 @@
       <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>0.4</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="10">
         <v>0.45450000000000002</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>0.36840000000000001</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="10">
         <v>0.36840000000000001</v>
       </c>
       <c r="G3" s="9">
@@ -6450,16 +6427,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -6473,16 +6450,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -6496,16 +6473,16 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -6519,16 +6496,16 @@
       <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -6546,7 +6523,7 @@
       <sortCondition ref="G1:G7"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G3">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6557,7 +6534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B6CC30A-7BBE-40AF-94B6-691AAEF4F672}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC6164D-21D6-4530-963A-8D1E2204286A}">
   <sheetPr codeName="工作表3" filterMode="1"/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -6569,7 +6546,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="6.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="12.5" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6598,7 +6575,7 @@
         <v>31</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -6608,16 +6585,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="13">
         <v>42302.53</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="13">
         <v>43030.36</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="13">
         <v>47193.33</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="13">
         <v>37059</v>
       </c>
       <c r="G2" s="9">
@@ -6631,16 +6608,16 @@
       <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="13">
         <v>0</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="9">
@@ -6654,16 +6631,16 @@
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="13">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="9">
@@ -6677,16 +6654,16 @@
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="13">
         <v>0</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="9">
@@ -6700,16 +6677,16 @@
       <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="13">
         <v>0</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="9">
@@ -6723,16 +6700,16 @@
       <c r="B7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="13">
         <v>42302.53</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="13">
         <v>43030.36</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="13">
         <v>47193.33</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="13">
         <v>37058.910000000003</v>
       </c>
       <c r="G7" s="9">
@@ -6761,7 +6738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5ABE74-5845-4FDA-83E3-C478B20BD977}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2FAF3E-BED6-4EE8-ABEF-3D166E34818A}">
   <sheetPr codeName="工作表4" filterMode="1"/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -6773,7 +6750,7 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="4.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -6802,7 +6779,7 @@
         <v>31</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -6812,16 +6789,16 @@
       <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>3.13</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="14">
         <v>3.67</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>3.57</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>2.9</v>
       </c>
       <c r="G2" s="9">
@@ -6835,16 +6812,16 @@
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>3.22</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>3</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>3.92</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>2.8</v>
       </c>
       <c r="G3" s="9">
@@ -6858,16 +6835,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>3.67</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>3.44</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>3.8</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>3.9</v>
       </c>
       <c r="G4" s="9">
@@ -6881,16 +6858,16 @@
       <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>3.89</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>3.38</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>4.07</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="15">
         <v>4</v>
       </c>
       <c r="G5" s="9">
@@ -6904,16 +6881,16 @@
       <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>3.97</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>3.76</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>4.2</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>3.8</v>
       </c>
       <c r="G6" s="9">
@@ -6927,16 +6904,16 @@
       <c r="B7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <v>3.62</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <v>3.48</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>3.39</v>
       </c>
       <c r="G7" s="9">
@@ -6965,7 +6942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4BC0EF-0273-4722-AE8F-591AF8C307F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C44CCFB-A332-4DB8-A3F1-98171E951048}">
   <sheetPr codeName="工作表5" filterMode="1"/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -6977,7 +6954,8 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="6" width="5.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="6" customWidth="1"/>
+    <col min="4" max="6" width="9.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -7006,7 +6984,7 @@
         <v>31</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -7016,16 +6994,16 @@
       <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>12.07</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>14</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14">
         <v>12.11</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>10.11</v>
       </c>
       <c r="G2" s="9">
@@ -7039,16 +7017,16 @@
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>9.07</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>10.11</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>7.25</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>10.19</v>
       </c>
       <c r="G3" s="9">
@@ -7062,16 +7040,16 @@
       <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>8.64</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>8.5299999999999994</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>8.4499999999999993</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>8.9700000000000006</v>
       </c>
       <c r="G4" s="9">
@@ -7085,16 +7063,16 @@
       <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>6.84</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <v>6.09</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <v>8.0500000000000007</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>6.47</v>
       </c>
       <c r="G5" s="9">
@@ -7108,16 +7086,16 @@
       <c r="B6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>10.66</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>10.24</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>10.55</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>11.28</v>
       </c>
       <c r="G6" s="9">
@@ -7131,16 +7109,16 @@
       <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -7158,7 +7136,7 @@
       <sortCondition ref="G1:G7"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G6">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7169,7 +7147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F45BE6-249B-4E8B-A3D1-EA02061B04F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8179D3-4425-4C65-866E-53FBCDCAA3B4}">
   <sheetPr codeName="工作表6" filterMode="1"/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -7181,8 +7159,9 @@
   <cols>
     <col min="1" max="1" width="40.125" style="6" customWidth="1"/>
     <col min="2" max="2" width="12" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="3.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="6"/>
     <col min="9" max="9" width="14" style="6" customWidth="1"/>
     <col min="10" max="16384" width="9" style="6"/>
@@ -7211,7 +7190,7 @@
         <v>31</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -7221,16 +7200,16 @@
       <c r="B2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="14">
         <v>0.67</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>1</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <v>0</v>
       </c>
       <c r="G2" s="9">
@@ -7244,16 +7223,16 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -7267,16 +7246,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -7290,16 +7269,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -7313,16 +7292,16 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -7336,16 +7315,16 @@
       <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -7363,7 +7342,7 @@
       <sortCondition ref="G1:G7"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7374,7 +7353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CFCE9D7-C8EB-43D9-8A96-710D55C453B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835D2B1B-FADB-44D7-BDE1-609FD47323BC}">
   <sheetPr codeName="工作表7" filterMode="1"/>
   <dimension ref="A1:Q7"/>
   <sheetViews>
@@ -7415,7 +7394,7 @@
         <v>31</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
@@ -7425,16 +7404,16 @@
       <c r="B2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G2" s="9">
@@ -7448,16 +7427,16 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G3" s="9" t="s">
@@ -7471,16 +7450,16 @@
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="9" t="s">
@@ -7494,16 +7473,16 @@
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="C5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="9" t="s">
@@ -7517,16 +7496,16 @@
       <c r="B6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="C6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="9" t="s">
@@ -7540,16 +7519,16 @@
       <c r="B7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="9" t="s">
@@ -7567,7 +7546,7 @@
       <sortCondition ref="G1:G7"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G2">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G7">
     <sortCondition ref="G2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test/1. 各院彙整資料/教育學院.xlsx
+++ b/test/1. 各院彙整資料/教育學院.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\學評組工讀生\應數碩三_陳慎逸\3. Index-Evaluation-Analysis-Report\test\1. 各院彙整資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6CD519-14D0-4FF3-B21B-3FADAD12DD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD31CB8E-4E60-4F0C-94EA-8C5EC619089D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14580" windowHeight="10230" firstSheet="5" activeTab="7" xr2:uid="{C2393678-D71F-40FE-A2FB-F71793F5FB11}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{C2393678-D71F-40FE-A2FB-F71793F5FB11}"/>
   </bookViews>
   <sheets>
     <sheet name="小結" sheetId="1" r:id="rId1"/>
-    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="100" r:id="rId2"/>
-    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="101" r:id="rId3"/>
-    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="102" r:id="rId4"/>
-    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="103" r:id="rId5"/>
-    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="104" r:id="rId6"/>
-    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="105" r:id="rId7"/>
-    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="106" r:id="rId8"/>
+    <sheet name="1.1.1.1 學士班繁星推薦入學錄取率" sheetId="114" r:id="rId2"/>
+    <sheet name="1.1.3.4 博士班招收國內重點大學畢業生比率" sheetId="115" r:id="rId3"/>
+    <sheet name="1.4.1.1 學士班獲獎助學金平均金額" sheetId="116" r:id="rId4"/>
+    <sheet name="1.7.1.4 碩士班平均修業年限" sheetId="117" r:id="rId5"/>
+    <sheet name="2.1.1.2 平均碩博士班修課學生人數" sheetId="118" r:id="rId6"/>
+    <sheet name="2.3.1.2 各系所教師兼任本校二級學術行政主管人次" sheetId="119" r:id="rId7"/>
+    <sheet name="3.2.1.1 舉辦國際學術研討會數" sheetId="120" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'1.1.1.1 學士班繁星推薦入學錄取率'!$A$1:$G$7</definedName>
@@ -556,7 +556,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B6E8-4A61-B090-4104E6CEFD23}"/>
+              <c16:uniqueId val="{00000000-AECD-49EA-AF2C-5A008A45EEB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -620,7 +620,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B6E8-4A61-B090-4104E6CEFD23}"/>
+              <c16:uniqueId val="{00000001-AECD-49EA-AF2C-5A008A45EEB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -684,7 +684,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-B6E8-4A61-B090-4104E6CEFD23}"/>
+              <c16:uniqueId val="{00000002-AECD-49EA-AF2C-5A008A45EEB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -902,7 +902,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-B6E8-4A61-B090-4104E6CEFD23}"/>
+              <c16:uniqueId val="{00000004-AECD-49EA-AF2C-5A008A45EEB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1212,7 +1212,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-20E3-4CE6-9D5F-A408ECCCFE19}"/>
+              <c16:uniqueId val="{00000000-1DAB-454B-944E-4461CC6586D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1276,7 +1276,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-20E3-4CE6-9D5F-A408ECCCFE19}"/>
+              <c16:uniqueId val="{00000001-1DAB-454B-944E-4461CC6586D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1340,7 +1340,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-20E3-4CE6-9D5F-A408ECCCFE19}"/>
+              <c16:uniqueId val="{00000002-1DAB-454B-944E-4461CC6586D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1558,7 +1558,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-20E3-4CE6-9D5F-A408ECCCFE19}"/>
+              <c16:uniqueId val="{00000004-1DAB-454B-944E-4461CC6586D5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1892,7 +1892,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1F0C-4192-8BEE-C6B05C8C4CC2}"/>
+              <c16:uniqueId val="{00000000-7D88-4749-8A7D-BC94727C1E12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1980,7 +1980,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1F0C-4192-8BEE-C6B05C8C4CC2}"/>
+              <c16:uniqueId val="{00000001-7D88-4749-8A7D-BC94727C1E12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2068,7 +2068,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1F0C-4192-8BEE-C6B05C8C4CC2}"/>
+              <c16:uniqueId val="{00000002-7D88-4749-8A7D-BC94727C1E12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2310,7 +2310,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1F0C-4192-8BEE-C6B05C8C4CC2}"/>
+              <c16:uniqueId val="{00000004-7D88-4749-8A7D-BC94727C1E12}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2644,7 +2644,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D2F1-4833-B5C6-60D80AEBE261}"/>
+              <c16:uniqueId val="{00000000-65CA-4C45-87E3-660D1FFB4BCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2732,7 +2732,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D2F1-4833-B5C6-60D80AEBE261}"/>
+              <c16:uniqueId val="{00000001-65CA-4C45-87E3-660D1FFB4BCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2820,7 +2820,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D2F1-4833-B5C6-60D80AEBE261}"/>
+              <c16:uniqueId val="{00000002-65CA-4C45-87E3-660D1FFB4BCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3062,7 +3062,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D2F1-4833-B5C6-60D80AEBE261}"/>
+              <c16:uniqueId val="{00000004-65CA-4C45-87E3-660D1FFB4BCB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3390,7 +3390,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-89D5-41CD-97CA-996A89956A8D}"/>
+              <c16:uniqueId val="{00000000-5C40-40D0-A36A-8F89F7347099}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3472,7 +3472,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-89D5-41CD-97CA-996A89956A8D}"/>
+              <c16:uniqueId val="{00000001-5C40-40D0-A36A-8F89F7347099}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3554,7 +3554,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-89D5-41CD-97CA-996A89956A8D}"/>
+              <c16:uniqueId val="{00000002-5C40-40D0-A36A-8F89F7347099}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3790,7 +3790,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-89D5-41CD-97CA-996A89956A8D}"/>
+              <c16:uniqueId val="{00000004-5C40-40D0-A36A-8F89F7347099}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4094,7 +4094,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2D48-4527-822C-1DBBD231A5D6}"/>
+              <c16:uniqueId val="{00000000-4F35-4B32-9E36-B1029578643E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4152,7 +4152,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2D48-4527-822C-1DBBD231A5D6}"/>
+              <c16:uniqueId val="{00000001-4F35-4B32-9E36-B1029578643E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4210,7 +4210,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2D48-4527-822C-1DBBD231A5D6}"/>
+              <c16:uniqueId val="{00000002-4F35-4B32-9E36-B1029578643E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4325,7 +4325,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-2D48-4527-822C-1DBBD231A5D6}"/>
+                  <c16:uniqueId val="{00000003-4F35-4B32-9E36-B1029578643E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4425,7 +4425,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-2D48-4527-822C-1DBBD231A5D6}"/>
+              <c16:uniqueId val="{00000004-4F35-4B32-9E36-B1029578643E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4729,7 +4729,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A67F-4D58-A7F9-D766D01BF561}"/>
+              <c16:uniqueId val="{00000000-14A6-4A1D-9A8A-E9B9F04FC420}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4787,7 +4787,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A67F-4D58-A7F9-D766D01BF561}"/>
+              <c16:uniqueId val="{00000001-14A6-4A1D-9A8A-E9B9F04FC420}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4845,7 +4845,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-A67F-4D58-A7F9-D766D01BF561}"/>
+              <c16:uniqueId val="{00000002-14A6-4A1D-9A8A-E9B9F04FC420}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4960,7 +4960,7 @@
                   </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000003-A67F-4D58-A7F9-D766D01BF561}"/>
+                  <c16:uniqueId val="{00000003-14A6-4A1D-9A8A-E9B9F04FC420}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -5060,7 +5060,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-A67F-4D58-A7F9-D766D01BF561}"/>
+              <c16:uniqueId val="{00000004-14A6-4A1D-9A8A-E9B9F04FC420}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5289,7 +5289,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7849958E-0C33-43CB-9BFF-7BDC33C81FDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70D1A245-B635-439C-810C-B17C05717729}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5322,7 +5322,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0803F02A-CA8F-412E-BBD3-A8858C369D15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F580A0-D7FD-460D-9546-A330C16B52BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5355,7 +5355,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8ADF3C-7FC8-4AD9-BFB7-478051436E3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675CC500-A062-41DB-94DB-98C85AFB8E44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5388,7 +5388,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2555C209-1A06-4DEE-B9A6-A6227118AE35}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A4EB197-085F-478E-9576-D215A43B332E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5421,7 +5421,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C1C0F22-920B-4328-A2A6-C165C6678002}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BC4DC41-08B1-4D34-9CC0-C31EE930EF03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5454,7 +5454,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A012AFC-ADD5-4722-A054-7E8C50247AE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9507282-F409-4B5E-A991-A81F5B382D76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5487,7 +5487,7 @@
         <xdr:cNvPr id="2" name="圖表 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAEA1B88-DDEC-40B6-847E-C8C82C2C70FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3679FAA4-DE03-4446-AE2C-B15F5947420D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6113,22 +6113,23 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{269B4EC2-1ED8-4F6D-87D5-96FE56520D9F}"/>
-    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{A45B28BE-384D-496A-AEB8-15B78711BC93}"/>
-    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{363E48BA-5856-4302-8C81-444F05CA0FF4}"/>
-    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{45C4B51A-2B2E-4C6F-8CD2-A779A6395E34}"/>
-    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{38C2081C-C095-48C0-A32A-6B5FED16C5C0}"/>
-    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{E5E980A5-5DDC-410E-939C-36CA8B8239AB}"/>
-    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{F6040913-F448-44FF-B3E1-55B72BF18118}"/>
+    <hyperlink ref="B3" location="'1.1.1.1 學士班繁星推薦入學錄取率'!A1" display="學士班繁星推薦入學錄取率" xr:uid="{E979E767-4E0A-41BA-9D10-C01C32072B4A}"/>
+    <hyperlink ref="B4" location="'1.1.3.4 博士班招收國內重點大學畢業生比率'!A1" display="博士班招收國內重點大學畢業生比率" xr:uid="{F6B00904-58F8-4CCC-B7E7-34385B71C1E8}"/>
+    <hyperlink ref="B5" location="'1.4.1.1 學士班獲獎助學金平均金額'!A1" display="學士班獲獎助學金平均金額" xr:uid="{64C915A1-8061-4F40-98AE-8ECA5C1209A6}"/>
+    <hyperlink ref="B6" location="'1.7.1.4 碩士班平均修業年限'!A1" display="碩士班平均修業年限" xr:uid="{9864C8F2-4A8E-4F51-97DB-7EAF83495F4C}"/>
+    <hyperlink ref="B8" location="'2.1.1.2 平均碩博士班修課學生人數'!A1" display="平均碩博士班修課學生人數" xr:uid="{74B8166E-56AD-43BF-90B3-2C4EA715AC25}"/>
+    <hyperlink ref="B9" location="'2.3.1.2 各系所教師兼任本校二級學術行政主管人次'!A1" display="各系所教師兼任本校二級學術行政主管人次" xr:uid="{8838E794-37F4-4D0D-A4E5-382BD1FF2DB5}"/>
+    <hyperlink ref="B11" location="'3.2.1.1 舉辦國際學術研討會數'!A1" display="舉辦國際學術研討會數" xr:uid="{BA9CCBCC-CE61-4518-9FDF-CD27A3D85613}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225C2EAC-CAEC-4E55-9EFC-A98E60038BCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99116403-0F2A-4D30-B34D-3908A4D1F1F3}">
   <sheetPr codeName="工作表1" filterMode="1"/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6144,7 +6145,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6166,11 +6167,11 @@
       <c r="G1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6193,7 +6194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -6216,7 +6217,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6239,7 +6240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -6262,7 +6263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -6285,7 +6286,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -6330,9 +6331,9 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC4C6F1-ECF4-4624-A1D7-266523F6A5C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74836D4F-E492-426E-ACBD-09A5A515936B}">
   <sheetPr codeName="工作表2" filterMode="1"/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6348,7 +6349,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6370,11 +6371,11 @@
       <c r="G1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6397,7 +6398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -6420,7 +6421,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6443,7 +6444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -6466,7 +6467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -6489,7 +6490,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -6534,9 +6535,9 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC6164D-21D6-4530-963A-8D1E2204286A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262A6F70-8F1F-42AD-B4A9-DB79BDA714B4}">
   <sheetPr codeName="工作表3" filterMode="1"/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6552,7 +6553,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6574,11 +6575,11 @@
       <c r="G1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6601,7 +6602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
@@ -6624,7 +6625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -6647,7 +6648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -6670,7 +6671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -6693,7 +6694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -6738,9 +6739,9 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2FAF3E-BED6-4EE8-ABEF-3D166E34818A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA48F50-A7B0-4F6E-B854-DF177A3AAD1C}">
   <sheetPr codeName="工作表4" filterMode="1"/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6756,7 +6757,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6778,11 +6779,11 @@
       <c r="G1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -6805,7 +6806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -6828,7 +6829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6851,7 +6852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -6897,7 +6898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>0</v>
       </c>
@@ -6942,9 +6943,9 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C44CCFB-A332-4DB8-A3F1-98171E951048}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913040EC-053D-4FE9-A199-EB2E28B09565}">
   <sheetPr codeName="工作表5" filterMode="1"/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -6961,7 +6962,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6983,11 +6984,11 @@
       <c r="G1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
@@ -7010,7 +7011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
@@ -7033,7 +7034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -7056,7 +7057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -7079,7 +7080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
@@ -7102,7 +7103,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -7147,9 +7148,9 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8179D3-4425-4C65-866E-53FBCDCAA3B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5910DDA5-D32D-4803-8EC6-7440B3DB10C3}">
   <sheetPr codeName="工作表6" filterMode="1"/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7167,7 +7168,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -7189,11 +7190,11 @@
       <c r="G1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -7216,7 +7217,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -7239,7 +7240,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -7262,7 +7263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -7285,7 +7286,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -7308,7 +7309,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
@@ -7353,9 +7354,9 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835D2B1B-FADB-44D7-BDE1-609FD47323BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05EF7CF5-BBE7-4EB1-9D06-803803353309}">
   <sheetPr codeName="工作表7" filterMode="1"/>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
@@ -7371,7 +7372,7 @@
     <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -7393,11 +7394,11 @@
       <c r="G1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -7420,7 +7421,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
@@ -7443,7 +7444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -7466,7 +7467,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -7489,7 +7490,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
@@ -7512,7 +7513,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="16.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
